--- a/details.xlsx
+++ b/details.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>52.85</v>
+        <v>50.85</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>51.85</v>
+        <v>50.85</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>51.85</v>
+        <v>50.85</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
